--- a/dataset_ingredients.xlsx
+++ b/dataset_ingredients.xlsx
@@ -1,205 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bangkit-Capstone\Fast-API\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4456D9-DF45-4633-994E-1F0ADD2C0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
-    <t>pic_url</t>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>pics_url</t>
   </si>
   <si>
     <t>ayam</t>
   </si>
   <si>
-    <t>https://static.chickin.xyz/blog/wp-content/uploads/2021/08/karkas-ayam-potong.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/ayam.jpg</t>
   </si>
   <si>
     <t>brokoli</t>
   </si>
   <si>
-    <t>https://cdn1-production-images-kly.akamaized.net/3XoTFv7UWyfIud_qOHTBSfduWNk=/2127x0:4863x3649/469x625/filters:quality(75):strip_icc():format(webp)/kly-media-production/medias/2907989/original/085792300_1568186157-shutterstock_318831905.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/brokoli.jpg</t>
   </si>
   <si>
     <t>jagung</t>
   </si>
   <si>
-    <t>https://imgx.parapuan.co/crop/0x0:0x0/x/photo/2022/08/28/tips-memilih-jagungjpg-20220828092415.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/jagung.jpg</t>
   </si>
   <si>
     <t>kacang_tanah</t>
   </si>
   <si>
-    <t>https://cdn1-production-images-kly.akamaized.net/bfm9rRGIPDgNP3MwywHRvEEX7hs=/1200x1200/smart/filters:quality(75):strip_icc():format(jpeg)/kly-media-production/medias/3062767/original/012430500_1582853277-peanuts-1112_960_720.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/kacang_tanah.jpg</t>
   </si>
   <si>
     <t>kangkung</t>
   </si>
   <si>
-    <t>https://www.dictio.id/uploads/db3342/6f0377a507bf85e5724a2ed675aad4e7856012b0</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/kangkung.jpg</t>
   </si>
   <si>
     <t>kentang</t>
   </si>
   <si>
-    <t>https://cdn1-production-images-kly.akamaized.net/9RpScM4alwqpG3HbtR7SphVGu-0=/1200x675/smart/filters:quality(75):strip_icc():format(jpeg)/kly-media-production/medias/2733644/original/082057800_1550655999-foto_kentang.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/kentang.jpg</t>
   </si>
   <si>
     <t>labu</t>
   </si>
   <si>
-    <t>https://awsimages.detik.net.id/customthumb/2014/10/22/900/172449_labucover.jpg?w=600&amp;q=90</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/labu.jpg</t>
   </si>
   <si>
     <t>labu_siam</t>
   </si>
   <si>
-    <t>https://medialampung.disway.id/upload/cc316d75160f3d3e344868f242351a48.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/labu_siam.jpg</t>
   </si>
   <si>
     <t>lobak_merah</t>
   </si>
   <si>
-    <t>https://s3.theasianparent.com/tap-assets-prod/wp-content/uploads/sites/24/2020/01/manfaat-lobak-merah-2-1024x768.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/lobak_merah.jpg</t>
   </si>
   <si>
     <t>mentimun</t>
   </si>
   <si>
-    <t>https://cdn-brilio-net.akamaized.net/webp/news/2015/09/15/17680/1200xauto-9-kedahsyatan-mentimun-yang-tak-pernah-kamu-sangka-buktikan-aja-deh-1509158.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/mentimun.jpg</t>
   </si>
   <si>
     <t>nanas</t>
   </si>
   <si>
-    <t>https://ners.unair.ac.id/site/images/Lihat/Nanas_Buah_Tropis_Kaya_Manfaat.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/nanas.jpg</t>
   </si>
   <si>
     <t>nangka</t>
   </si>
   <si>
-    <t>https://media.istockphoto.com/id/1369037190/id/foto/objek-tunggal-nangka-diisolasi-dengan-latar-belakang-putih.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=pCCjLZcpTt6NzzTecb6U8LBdJ5xVNdegp8O4NdSVfjc=</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/nangka.jpg</t>
   </si>
   <si>
     <t>nasi_putih</t>
   </si>
   <si>
-    <t>https://paxelmarket.co/wp-content/uploads/2022/02/3e9c2d77-36db-4af0-bb74-d8ed5e89746a_43.jpeg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/nasi_putih.jpeg</t>
   </si>
   <si>
     <t>paprika</t>
   </si>
   <si>
-    <t>https://akcdn.detik.net.id/community/media/visual/2018/03/13/5b77e4d2-2788-411c-b14c-dbce26461cb8_43.jpeg?w=250&amp;q=</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/paprika.jpeg</t>
   </si>
   <si>
     <t>pare</t>
   </si>
   <si>
-    <t>https://asset.kompas.com/crops/Va0V8El2AWSiAYJ-IcYwSBHemHw=/100x55:500x321/750x500/data/photo/2021/05/19/60a49aacd4c57.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/pare.jpg</t>
   </si>
   <si>
     <t>pepaya</t>
   </si>
   <si>
-    <t>https://asset.kompas.com/crops/7KukJhLAtCUkZAglI17QlQco8LM=/0x0:996x664/750x500/data/photo/2020/06/25/5ef4204d9c44c.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/pepaya.jpg</t>
   </si>
   <si>
     <t>pisang</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dk0z4ums3/image/upload/v1627458125/attached_image/sehat-tiap-hari-berkat-manfaat-pisang.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/pisang.jpg</t>
   </si>
   <si>
     <t>singkong</t>
   </si>
   <si>
-    <t>https://d1vbn70lmn1nqe.cloudfront.net/prod/wp-content/uploads/2022/08/26042407/X-Manfaat-Kulit-Singkong-untuk-Kesehatan-Wajah.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/singkong.jpg</t>
   </si>
   <si>
     <t>tahu</t>
   </si>
   <si>
-    <t>https://asset.kompas.com/crops/uYkv1kqUtpcan5FRV1iCLgCWf40=/0x0:1000x667/750x500/data/photo/2021/07/19/60f51d62438f6.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/tahu.jpg</t>
   </si>
   <si>
     <t>telur</t>
   </si>
   <si>
-    <t>https://img.okezone.com/content/2022/11/04/298/2700806/yuk-kenali-7-jenis-telur-ayam-yang-ada-dan-manfaatnya-mseJZK3lku.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/telur.jpg</t>
   </si>
   <si>
     <t>tempe</t>
   </si>
   <si>
-    <t>https://asset.kompas.com/crops/XiURsSguUkdu8Oae6TR9Sg4MNaM=/2x147:907x750/750x500/data/photo/2021/05/19/60a4df1563d78.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/tempe.jpg</t>
   </si>
   <si>
     <t>terong</t>
   </si>
   <si>
-    <t>https://d1vbn70lmn1nqe.cloudfront.net/prod/wp-content/uploads/2022/11/10051516/5-manfaat-terong-ungu-yang-baik-bagi-kesehatan-halodoc.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/terong.jpg</t>
   </si>
   <si>
     <t>tomat</t>
   </si>
   <si>
-    <t>https://storage.aido.id/articles/May2021/z7hsjae1p1l5jm9q2py3.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/tomat.jpg</t>
   </si>
   <si>
     <t>ubi</t>
   </si>
   <si>
-    <t>https://asset.kompas.com/crops/LMjQWr_6qS3iMPcvH72Vsqys07k=/1x0:1280x853/750x500/data/photo/2021/04/17/607a9bd14ee96.jpg</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/ubi.jpg</t>
   </si>
   <si>
     <t>wortel</t>
   </si>
   <si>
-    <t>https://images.bisnis.com/posts/2021/08/07/1426929/carrot.jpg</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>https://storage.googleapis.com/foto-bahan-makanan/wortel.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,44 +199,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -434,260 +427,256 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink r:id="rId21" ref="B22"/>
+    <hyperlink r:id="rId22" ref="B23"/>
+    <hyperlink r:id="rId23" ref="B24"/>
+    <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/dataset_ingredients.xlsx
+++ b/dataset_ingredients.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bangkit-Capstone\CookMate-API\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648283B8-5157-4C8D-9A23-91ABEE5FBD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
-    <t>ingredients</t>
-  </si>
-  <si>
     <t>pics_url</t>
   </si>
   <si>
@@ -167,31 +173,39 @@
   </si>
   <si>
     <t>https://storage.googleapis.com/foto-bahan-makanan/wortel.jpg</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,45 +213,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -427,256 +441,261 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="B24"/>
-    <hyperlink r:id="rId24" ref="B25"/>
-    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>